--- a/key84.xlsx
+++ b/key84.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>view</t>
     <phoneticPr fontId="1"/>
@@ -29,6 +29,9 @@
     <t>mem</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>octave</t>
+  </si>
 </sst>
 </file>
 
@@ -38,14 +41,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -212,182 +215,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -715,15 +543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="43.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2291,6 +2119,9 @@
       </c>
       <c r="C104" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +2154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,7 +2168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/key84.xlsx
+++ b/key84.xlsx
@@ -18,19 +18,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ofs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mem</t>
-    <phoneticPr fontId="1"/>
+    <t>octave</t>
   </si>
   <si>
-    <t>octave</t>
+    <t>mem[x]</t>
+  </si>
+  <si>
+    <t>height</t>
   </si>
 </sst>
 </file>
@@ -543,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2112,16 +2110,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/key84.xlsx
+++ b/key84.xlsx
@@ -39,14 +39,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -541,25 +541,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4">
         <f t="shared" ref="A1:A64" si="0">B1*8</f>
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="B1" s="4">
-        <v>100</v>
+        <f t="shared" ref="B1:B64" si="1">B2+1</f>
+        <v>102</v>
       </c>
       <c r="C1" s="4">
         <v>88</v>
@@ -571,10 +572,11 @@
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f t="shared" si="0"/>
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="B2" s="4">
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
       <c r="C2" s="4">
         <v>87</v>
@@ -586,10 +588,11 @@
     <row r="3" spans="1:4">
       <c r="A3" s="13">
         <f t="shared" si="0"/>
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="B3" s="13">
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="C3" s="13">
         <v>86</v>
@@ -601,10 +604,11 @@
     <row r="4" spans="1:4">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="B4" s="4">
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="C4" s="4">
         <v>85</v>
@@ -616,10 +620,11 @@
     <row r="5" spans="1:4">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="B5" s="4">
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="C5" s="4">
         <v>84</v>
@@ -631,10 +636,11 @@
     <row r="6" spans="1:4">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="B6" s="4">
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="C6" s="4">
         <v>83</v>
@@ -646,10 +652,11 @@
     <row r="7" spans="1:4">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="B7" s="4">
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="C7" s="4">
         <v>82</v>
@@ -661,10 +668,11 @@
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="B8" s="4">
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="C8" s="4">
         <v>81</v>
@@ -676,10 +684,11 @@
     <row r="9" spans="1:4">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="B9" s="4">
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="C9" s="4">
         <v>80</v>
@@ -691,10 +700,11 @@
     <row r="10" spans="1:4">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="B10" s="4">
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="C10" s="4">
         <v>79</v>
@@ -706,10 +716,11 @@
     <row r="11" spans="1:4">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="B11" s="4">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="C11" s="4">
         <v>78</v>
@@ -721,10 +732,11 @@
     <row r="12" spans="1:4">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="B12" s="4">
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="C12" s="4">
         <v>77</v>
@@ -736,10 +748,11 @@
     <row r="13" spans="1:4">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="B13" s="4">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="C13" s="4">
         <v>76</v>
@@ -751,10 +764,11 @@
     <row r="14" spans="1:4">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="B14" s="4">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="C14" s="4">
         <v>75</v>
@@ -766,10 +780,11 @@
     <row r="15" spans="1:4">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="B15" s="4">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="C15" s="4">
         <v>74</v>
@@ -781,10 +796,11 @@
     <row r="16" spans="1:4">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="B16" s="4">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="C16" s="4">
         <v>73</v>
@@ -796,10 +812,11 @@
     <row r="17" spans="1:5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="B17" s="4">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="C17" s="4">
         <v>72</v>
@@ -814,10 +831,11 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="B18" s="4">
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="C18" s="4">
         <v>71</v>
@@ -829,10 +847,11 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B19" s="4">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="C19" s="4">
         <v>70</v>
@@ -844,10 +863,11 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="B20" s="4">
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="C20" s="4">
         <v>69</v>
@@ -859,10 +879,11 @@
     <row r="21" spans="1:5">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B21" s="4">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="C21" s="4">
         <v>68</v>
@@ -874,10 +895,11 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B22" s="4">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="C22" s="4">
         <v>67</v>
@@ -889,10 +911,11 @@
     <row r="23" spans="1:5">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="B23" s="13">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="C23" s="13">
         <v>66</v>
@@ -904,10 +927,11 @@
     <row r="24" spans="1:5">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="B24" s="4">
-        <v>77</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="C24" s="4">
         <v>65</v>
@@ -919,10 +943,11 @@
     <row r="25" spans="1:5">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="B25" s="4">
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="C25" s="4">
         <v>64</v>
@@ -934,10 +959,11 @@
     <row r="26" spans="1:5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="B26" s="4">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="C26" s="4">
         <v>63</v>
@@ -949,10 +975,11 @@
     <row r="27" spans="1:5">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B27" s="4">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="C27" s="4">
         <v>62</v>
@@ -964,10 +991,11 @@
     <row r="28" spans="1:5">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="B28" s="4">
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="C28" s="4">
         <v>61</v>
@@ -979,10 +1007,11 @@
     <row r="29" spans="1:5">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="B29" s="4">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="C29" s="4">
         <v>60</v>
@@ -997,10 +1026,11 @@
     <row r="30" spans="1:5">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="B30" s="4">
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="C30" s="4">
         <v>59</v>
@@ -1012,10 +1042,11 @@
     <row r="31" spans="1:5">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="B31" s="4">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="C31" s="4">
         <v>58</v>
@@ -1027,10 +1058,11 @@
     <row r="32" spans="1:5">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="B32" s="4">
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
         <v>57</v>
@@ -1042,10 +1074,11 @@
     <row r="33" spans="1:5">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="B33" s="4">
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="C33" s="4">
         <v>56</v>
@@ -1057,10 +1090,11 @@
     <row r="34" spans="1:5">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="B34" s="4">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="C34" s="4">
         <v>55</v>
@@ -1072,10 +1106,11 @@
     <row r="35" spans="1:5">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="B35" s="4">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="C35" s="4">
         <v>54</v>
@@ -1087,10 +1122,11 @@
     <row r="36" spans="1:5">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="B36" s="4">
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="C36" s="4">
         <v>53</v>
@@ -1102,10 +1138,11 @@
     <row r="37" spans="1:5">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="B37" s="4">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="C37" s="4">
         <v>52</v>
@@ -1117,10 +1154,11 @@
     <row r="38" spans="1:5">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B38" s="4">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="C38" s="4">
         <v>51</v>
@@ -1132,10 +1170,11 @@
     <row r="39" spans="1:5">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B39" s="4">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="C39" s="4">
         <v>50</v>
@@ -1147,10 +1186,11 @@
     <row r="40" spans="1:5">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B40" s="4">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="C40" s="4">
         <v>49</v>
@@ -1162,10 +1202,11 @@
     <row r="41" spans="1:5">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B41" s="4">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="C41" s="4">
         <v>48</v>
@@ -1180,10 +1221,11 @@
     <row r="42" spans="1:5">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="B42" s="4">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="C42" s="4">
         <v>47</v>
@@ -1195,10 +1237,11 @@
     <row r="43" spans="1:5">
       <c r="A43" s="13">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B43" s="13">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="C43" s="13">
         <v>46</v>
@@ -1210,10 +1253,11 @@
     <row r="44" spans="1:5">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B44" s="4">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="C44" s="4">
         <v>45</v>
@@ -1225,10 +1269,11 @@
     <row r="45" spans="1:5">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B45" s="4">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -1240,10 +1285,11 @@
     <row r="46" spans="1:5">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B46" s="4">
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="C46" s="4">
         <v>43</v>
@@ -1255,10 +1301,11 @@
     <row r="47" spans="1:5">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B47" s="4">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="C47" s="4">
         <v>42</v>
@@ -1270,10 +1317,11 @@
     <row r="48" spans="1:5">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B48" s="4">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="C48" s="4">
         <v>41</v>
@@ -1285,10 +1333,11 @@
     <row r="49" spans="1:5">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B49" s="4">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="C49" s="4">
         <v>40</v>
@@ -1300,10 +1349,11 @@
     <row r="50" spans="1:5">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B50" s="4">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="C50" s="4">
         <v>39</v>
@@ -1315,10 +1365,11 @@
     <row r="51" spans="1:5">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B51" s="4">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="C51" s="4">
         <v>38</v>
@@ -1330,10 +1381,11 @@
     <row r="52" spans="1:5">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B52" s="4">
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="C52" s="4">
         <v>37</v>
@@ -1345,10 +1397,11 @@
     <row r="53" spans="1:5">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B53" s="4">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="C53" s="4">
         <v>36</v>
@@ -1363,10 +1416,11 @@
     <row r="54" spans="1:5">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B54" s="4">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="C54" s="4">
         <v>35</v>
@@ -1378,10 +1432,11 @@
     <row r="55" spans="1:5">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B55" s="4">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="C55" s="4">
         <v>34</v>
@@ -1393,10 +1448,11 @@
     <row r="56" spans="1:5">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B56" s="4">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="C56" s="4">
         <v>33</v>
@@ -1408,10 +1464,11 @@
     <row r="57" spans="1:5">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B57" s="4">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="C57" s="4">
         <v>32</v>
@@ -1423,10 +1480,11 @@
     <row r="58" spans="1:5">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B58" s="4">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="C58" s="4">
         <v>31</v>
@@ -1438,10 +1496,11 @@
     <row r="59" spans="1:5">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B59" s="4">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="C59" s="4">
         <v>30</v>
@@ -1453,10 +1512,11 @@
     <row r="60" spans="1:5">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B60" s="4">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="C60" s="4">
         <v>29</v>
@@ -1468,10 +1528,11 @@
     <row r="61" spans="1:5">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B61" s="4">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="C61" s="4">
         <v>28</v>
@@ -1483,10 +1544,11 @@
     <row r="62" spans="1:5">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B62" s="4">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="C62" s="4">
         <v>27</v>
@@ -1498,10 +1560,11 @@
     <row r="63" spans="1:5">
       <c r="A63" s="13">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B63" s="13">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="C63" s="13">
         <v>26</v>
@@ -1513,10 +1576,11 @@
     <row r="64" spans="1:5">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B64" s="4">
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="C64" s="4">
         <v>25</v>
@@ -1527,11 +1591,12 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
-        <f t="shared" ref="A65:A100" si="1">B65*8</f>
-        <v>288</v>
+        <f t="shared" ref="A65:A100" si="2">B65*8</f>
+        <v>304</v>
       </c>
       <c r="B65" s="4">
-        <v>36</v>
+        <f t="shared" ref="B65:B101" si="3">B66+1</f>
+        <v>38</v>
       </c>
       <c r="C65" s="4">
         <v>24</v>
@@ -1545,11 +1610,12 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
-        <f t="shared" si="1"/>
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>296</v>
       </c>
       <c r="B66" s="4">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="C66" s="4">
         <v>23</v>
@@ -1560,11 +1626,12 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
-        <f t="shared" si="1"/>
-        <v>272</v>
+        <f t="shared" si="2"/>
+        <v>288</v>
       </c>
       <c r="B67" s="4">
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="C67" s="4">
         <v>22</v>
@@ -1575,11 +1642,12 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
-        <f t="shared" si="1"/>
-        <v>264</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="B68" s="4">
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="C68" s="4">
         <v>21</v>
@@ -1590,11 +1658,12 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="2"/>
+        <v>272</v>
       </c>
       <c r="B69" s="4">
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="C69" s="4">
         <v>20</v>
@@ -1605,11 +1674,12 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
-        <v>248</v>
+        <f t="shared" si="2"/>
+        <v>264</v>
       </c>
       <c r="B70" s="4">
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="C70" s="4">
         <v>19</v>
@@ -1620,11 +1690,12 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>256</v>
       </c>
       <c r="B71" s="4">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="C71" s="4">
         <v>18</v>
@@ -1635,11 +1706,12 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
-        <v>232</v>
+        <f t="shared" si="2"/>
+        <v>248</v>
       </c>
       <c r="B72" s="4">
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="C72" s="4">
         <v>17</v>
@@ -1650,11 +1722,12 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
-        <v>224</v>
+        <f t="shared" si="2"/>
+        <v>240</v>
       </c>
       <c r="B73" s="4">
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="C73" s="4">
         <v>16</v>
@@ -1665,11 +1738,12 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
-        <v>216</v>
+        <f t="shared" si="2"/>
+        <v>232</v>
       </c>
       <c r="B74" s="4">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="C74" s="4">
         <v>15</v>
@@ -1680,11 +1754,12 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
-        <f t="shared" si="1"/>
-        <v>208</v>
+        <f t="shared" si="2"/>
+        <v>224</v>
       </c>
       <c r="B75" s="4">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="C75" s="4">
         <v>14</v>
@@ -1695,11 +1770,12 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
       <c r="B76" s="4">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="C76" s="4">
         <v>13</v>
@@ -1710,11 +1786,12 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <f t="shared" si="2"/>
+        <v>208</v>
       </c>
       <c r="B77" s="4">
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="C77" s="4">
         <v>12</v>
@@ -1728,11 +1805,12 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
-        <f t="shared" si="1"/>
-        <v>184</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="B78" s="4">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="C78" s="4">
         <v>11</v>
@@ -1743,11 +1821,12 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
-        <f t="shared" si="1"/>
-        <v>176</v>
+        <f t="shared" si="2"/>
+        <v>192</v>
       </c>
       <c r="B79" s="4">
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="C79" s="4">
         <v>10</v>
@@ -1758,11 +1837,12 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
-        <f t="shared" si="1"/>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>184</v>
       </c>
       <c r="B80" s="4">
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="C80" s="4">
         <v>9</v>
@@ -1773,11 +1853,12 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <f t="shared" si="2"/>
+        <v>176</v>
       </c>
       <c r="B81" s="4">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="C81" s="4">
         <v>8</v>
@@ -1788,11 +1869,12 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
-        <f t="shared" si="1"/>
-        <v>152</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="B82" s="4">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="C82" s="4">
         <v>7</v>
@@ -1803,11 +1885,12 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="13">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="B83" s="13">
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="C83" s="13">
         <v>6</v>
@@ -1818,11 +1901,12 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <f t="shared" si="2"/>
+        <v>152</v>
       </c>
       <c r="B84" s="4">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="C84" s="4">
         <v>5</v>
@@ -1833,11 +1917,12 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="B85" s="4">
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="C85" s="4">
         <v>4</v>
@@ -1848,11 +1933,12 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
       <c r="B86" s="4">
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="C86" s="4">
         <v>3</v>
@@ -1863,11 +1949,12 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4">
-        <f t="shared" si="1"/>
-        <v>112</v>
+        <f t="shared" si="2"/>
+        <v>128</v>
       </c>
       <c r="B87" s="4">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="C87" s="4">
         <v>2</v>
@@ -1878,11 +1965,12 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="B88" s="4">
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -1893,11 +1981,12 @@
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1">
       <c r="A89" s="6">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>112</v>
       </c>
       <c r="B89" s="6">
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="C89" s="6">
         <v>0</v>
@@ -1911,11 +2000,12 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>104</v>
       </c>
       <c r="B90" s="4">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="C90" s="4">
         <v>-1</v>
@@ -1926,11 +2016,12 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="B91" s="4">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="C91" s="4">
         <v>-2</v>
@@ -1941,11 +2032,12 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="B92" s="4">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="C92" s="4">
         <v>-3</v>
@@ -1956,11 +2048,12 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="B93" s="4">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C93" s="4">
         <v>-4</v>
@@ -1971,11 +2064,12 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="B94" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="C94" s="4">
         <v>-5</v>
@@ -1986,11 +2080,12 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="B95" s="4">
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="C95" s="4">
         <v>-6</v>
@@ -2001,11 +2096,12 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="B96" s="4">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C96" s="4">
         <v>-7</v>
@@ -2016,11 +2112,12 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="B97" s="4">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="C97" s="4">
         <v>-8</v>
@@ -2031,11 +2128,12 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="B98" s="4">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="C98" s="4">
         <v>-9</v>
@@ -2046,11 +2144,12 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="B99" s="4">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C99" s="4">
         <v>-10</v>
@@ -2061,11 +2160,12 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="B100" s="4">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C100" s="4">
         <v>-11</v>
@@ -2077,10 +2177,11 @@
     <row r="101" spans="1:5" ht="15.75" thickBot="1">
       <c r="A101" s="4">
         <f>B101*8</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B101" s="4">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="C101" s="4">
         <v>-12</v>
@@ -2088,21 +2189,32 @@
       <c r="D101" s="2">
         <v>-1</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
+      <c r="A102" s="7">
+        <f>B102*8</f>
+        <v>8</v>
+      </c>
+      <c r="B102" s="8">
+        <f>B103+1</f>
+        <v>1</v>
+      </c>
       <c r="C102" s="9"/>
       <c r="D102" s="5">
         <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="10">
+        <f>B103*8</f>
+        <v>0</v>
+      </c>
+      <c r="B103" s="11">
+        <v>0</v>
+      </c>
       <c r="C103" s="12"/>
       <c r="D103" s="6">
         <v>-1</v>
@@ -2152,7 +2264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,7 +2278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
